--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\add-outputs\BGDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarrynna\Dropbox (CEA)\Energy Innovation IO\Deliverable IO files\Canada\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5FFC3-857E-4CD0-8096-9781F5BAB6F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11310"/>
+    <workbookView xWindow="33840" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD Data" sheetId="3" r:id="rId2"/>
     <sheet name="BGDP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,12 +80,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>GDPLTFORECAST</t>
   </si>
   <si>
@@ -104,12 +108,18 @@
   </si>
   <si>
     <t>Unit: 2012 USD</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -182,6 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,10 +472,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,12 +529,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +542,7 @@
         <v>1.0529130131709286</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,12 +551,12 @@
         <v>1000000</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -552,10 +564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,1088 +601,1088 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2014</v>
       </c>
-      <c r="G2">
-        <v>16208167.451801199</v>
+      <c r="G2" s="8">
+        <v>1505495.47140106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>2015</v>
       </c>
-      <c r="G3" s="5">
-        <v>16671978.001079099</v>
+      <c r="G3" s="8">
+        <v>1520564.3540934401</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
-      <c r="G4">
-        <v>16919603.417713501</v>
+      <c r="G4" s="8">
+        <v>1542066.2592517899</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>2017</v>
       </c>
-      <c r="G5">
-        <v>17304243.025623702</v>
+      <c r="G5" s="8">
+        <v>1588338.69301313</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>2018</v>
       </c>
-      <c r="G6">
-        <v>17798638.6604435</v>
+      <c r="G6" s="8">
+        <v>1621635.5389815201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
-      <c r="G7">
-        <v>18292645.569375802</v>
+      <c r="G7" s="8">
+        <v>1657928.8942838099</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>2020</v>
       </c>
-      <c r="G8">
-        <v>18587190</v>
+      <c r="G8" s="8">
+        <v>1684775</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>2021</v>
       </c>
-      <c r="G9">
-        <v>18849540</v>
+      <c r="G9" s="8">
+        <v>1710503</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>2022</v>
       </c>
-      <c r="G10">
-        <v>19124900</v>
+      <c r="G10" s="8">
+        <v>1736864</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>2023</v>
       </c>
-      <c r="G11">
-        <v>19422190</v>
+      <c r="G11" s="8">
+        <v>1764255</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>2024</v>
       </c>
-      <c r="G12">
-        <v>19740540</v>
+      <c r="G12" s="8">
+        <v>1792774</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>2025</v>
       </c>
-      <c r="G13">
-        <v>20075600</v>
+      <c r="G13" s="8">
+        <v>1822387</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>2026</v>
       </c>
-      <c r="G14">
-        <v>20424180</v>
+      <c r="G14" s="8">
+        <v>1852965</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>2027</v>
       </c>
-      <c r="G15">
-        <v>20784020</v>
+      <c r="G15" s="8">
+        <v>1884677</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>2028</v>
       </c>
-      <c r="G16">
-        <v>21153450</v>
+      <c r="G16" s="8">
+        <v>1917532</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>2029</v>
       </c>
-      <c r="G17">
-        <v>21531180</v>
+      <c r="G17" s="8">
+        <v>1951559</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>2030</v>
       </c>
-      <c r="G18">
-        <v>21916430</v>
+      <c r="G18" s="8">
+        <v>1986793</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>2031</v>
       </c>
-      <c r="G19">
-        <v>22309050</v>
+      <c r="G19" s="8">
+        <v>2023273</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>2032</v>
       </c>
-      <c r="G20">
-        <v>22709530</v>
+      <c r="G20" s="8">
+        <v>2060808</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>2033</v>
       </c>
-      <c r="G21">
-        <v>23118740</v>
+      <c r="G21" s="8">
+        <v>2099401</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>2034</v>
       </c>
-      <c r="G22">
-        <v>23537610</v>
+      <c r="G22" s="8">
+        <v>2139034</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>2035</v>
       </c>
-      <c r="G23">
-        <v>23967030</v>
+      <c r="G23" s="8">
+        <v>2179688</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>2036</v>
       </c>
-      <c r="G24">
-        <v>24407860</v>
+      <c r="G24" s="8">
+        <v>2221353</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>2037</v>
       </c>
-      <c r="G25">
-        <v>24861010</v>
+      <c r="G25" s="8">
+        <v>2264030</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>2038</v>
       </c>
-      <c r="G26">
-        <v>25327180</v>
+      <c r="G26" s="8">
+        <v>2307720</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>2039</v>
       </c>
-      <c r="G27">
-        <v>25806800</v>
+      <c r="G27" s="8">
+        <v>2352425</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>2040</v>
       </c>
-      <c r="G28">
-        <v>26300140</v>
+      <c r="G28" s="8">
+        <v>2398151</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>2041</v>
       </c>
-      <c r="G29">
-        <v>26807420</v>
+      <c r="G29" s="8">
+        <v>2444905</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>2042</v>
       </c>
-      <c r="G30">
-        <v>27328940</v>
+      <c r="G30" s="8">
+        <v>2492690</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>2043</v>
       </c>
-      <c r="G31">
-        <v>27864750</v>
+      <c r="G31" s="8">
+        <v>2541479</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>2044</v>
       </c>
-      <c r="G32">
-        <v>28414590</v>
+      <c r="G32" s="8">
+        <v>2591227</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>2045</v>
       </c>
-      <c r="G33">
-        <v>28978050</v>
+      <c r="G33" s="8">
+        <v>2641896</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>2046</v>
       </c>
-      <c r="G34">
-        <v>29554850</v>
+      <c r="G34" s="8">
+        <v>2693479</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>2047</v>
       </c>
-      <c r="G35">
-        <v>30144870</v>
+      <c r="G35" s="8">
+        <v>2745988</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>2048</v>
       </c>
-      <c r="G36">
-        <v>30747840</v>
+      <c r="G36" s="8">
+        <v>2799434</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>2049</v>
       </c>
-      <c r="G37">
-        <v>31363330</v>
+      <c r="G37" s="8">
+        <v>2853831</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>2050</v>
       </c>
-      <c r="G38">
-        <v>31990910</v>
+      <c r="G38" s="8">
+        <v>2909216</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>2051</v>
       </c>
-      <c r="G39">
-        <v>32630430</v>
+      <c r="G39" s="8">
+        <v>2965657</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>2052</v>
       </c>
-      <c r="G40">
-        <v>33282110</v>
+      <c r="G40" s="8">
+        <v>3023227</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>2053</v>
       </c>
-      <c r="G41">
-        <v>33946130</v>
+      <c r="G41" s="8">
+        <v>3081985</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>2054</v>
       </c>
-      <c r="G42">
-        <v>34622620</v>
+      <c r="G42" s="8">
+        <v>3141981</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>2055</v>
       </c>
-      <c r="G43">
-        <v>35311770</v>
+      <c r="G43" s="8">
+        <v>3203277</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>2056</v>
       </c>
-      <c r="G44">
-        <v>36014100</v>
+      <c r="G44" s="8">
+        <v>3265966</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>2057</v>
       </c>
-      <c r="G45">
-        <v>36730540</v>
+      <c r="G45" s="8">
+        <v>3330145</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>2058</v>
       </c>
-      <c r="G46">
-        <v>37462060</v>
+      <c r="G46" s="8">
+        <v>3395881</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>2059</v>
       </c>
-      <c r="G47">
-        <v>38209630</v>
+      <c r="G47" s="8">
+        <v>3463205</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>2060</v>
       </c>
-      <c r="G48">
-        <v>38974320</v>
+      <c r="G48" s="8">
+        <v>3532133</v>
       </c>
     </row>
   </sheetData>
@@ -1677,449 +1691,451 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
-        <v>17065790429654.971</v>
+        <v>1585155773108.0776</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
-        <v>17554142592635.627</v>
+        <v>1601021995788.8308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
-        <v>17814870616201.863</v>
+        <v>1623661631538.0244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
-        <v>18219862664751.477</v>
+        <v>1672382479196.4292</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
-        <v>18740418262308.145</v>
+        <v>1707441161614.0952</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
-        <v>19260564565319.313</v>
+        <v>1745654907703.5122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
-        <v>19570694229280.551</v>
+        <v>1773921521765.0513</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
-        <v>19846925958285.945</v>
+        <v>1801010867767.9128</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
-        <v>20136856085592.691</v>
+        <v>1828766707708.1118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
-        <v>20449876595278.277</v>
+        <v>1857607048051.8765</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
-        <v>20785071453021.242</v>
+        <v>1887635074274.4983</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
-        <v>21137860487214.293</v>
+        <v>1918814987333.5288</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2026</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
-        <v>21504884905345.414</v>
+        <v>1951010961450.2698</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2027</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
-        <v>21883765124004.84</v>
+        <v>1984400938923.946</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2028</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
-        <v>22272742778460.578</v>
+        <v>2018994395971.677</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2029</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
-        <v>22670459610925.633</v>
+        <v>2054821867070.8442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2030</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
-        <v>23076094349249.734</v>
+        <v>2091920204176.9087</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2031</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
-        <v>23489489056480.902</v>
+        <v>2130330470897.384</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2032</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
-        <v>23911159659995.598</v>
+        <v>2169851560846.7549</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2033</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
-        <v>24342022194115.273</v>
+        <v>2210486632764.0605</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
-        <v>24783055867942.18</v>
+        <v>2252216734215.064</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2035</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
-        <v>25235197774058.039</v>
+        <v>2295021859852.5146</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2036</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
-        <v>25699353417654.18</v>
+        <v>2338891480546.2817</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2037</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
-        <v>26176480949572.586</v>
+        <v>2383826649209.3774</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2038</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
-        <v>26667317408922.48</v>
+        <v>2429828418754.8149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2039</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
-        <v>27172315548299.516</v>
+        <v>2476898895008.6216</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2040</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
-        <v>27691759654217.266</v>
+        <v>2525044395448.8755</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2041</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
-        <v>28225881367538.613</v>
+        <v>2574272290466.6689</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2042</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
-        <v>28774996562167.52</v>
+        <v>2624585738801.042</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2043</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
-        <v>29339157883754.633</v>
+        <v>2675956311800.6382</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2044</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
-        <v>29918091574916.535</v>
+        <v>2728336628379.8657</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2045</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
-        <v>30511365941317.828</v>
+        <v>2781686677844.2236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2046</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
-        <v>31118686167314.816</v>
+        <v>2835999089802.6196</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2047</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
-        <v>31739925903345.926</v>
+        <v>2891286499211.2119</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2048</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
-        <v>32374800862897.605</v>
+        <v>2947560488113.1455</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2049</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
-        <v>33022858293374.176</v>
+        <v>3004835797290.604</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2050</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
-        <v>33683645442179.992</v>
+        <v>3063151384525.0762</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2051</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
-        <v>34357004372363.063</v>
+        <v>3122578847901.4565</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2052</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
-        <v>35043166724786.297</v>
+        <v>3183195050069.707</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2053</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
-        <v>35742322023792.047</v>
+        <v>3245062112897.604</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2054</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
-        <v>36454607148072.055</v>
+        <v>3308232682035.8071</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2055</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
-        <v>37180222151098.805</v>
+        <v>3372772038091.1323</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2056</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
-        <v>37919714547639.141</v>
+        <v>3438778101973.8047</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2057</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
-        <v>38674063546795.313</v>
+        <v>3506353006246.1021</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2058</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
-        <v>39444290474190.117</v>
+        <v>3575567296079.9063</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2059</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
-        <v>40231416655446.305</v>
+        <v>3646453611778.626</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2060</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
-        <v>41036568707487.984</v>
+        <v>3719028799950.4717</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarrynna\Dropbox (CEA)\Energy Innovation IO\Deliverable IO files\Canada\BGDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\io-model\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5FFC3-857E-4CD0-8096-9781F5BAB6F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD9EFAF-F152-49E6-B0D1-7E9C3DAF8AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10395" yWindow="1020" windowWidth="17400" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
   <si>
     <t>BGDP BAU Gross Domestic Product</t>
   </si>
@@ -110,10 +110,13 @@
     <t>Unit: 2012 USD</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Flag Codes</t>
   </si>
 </sst>
 </file>
@@ -174,16 +177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -191,7 +191,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,7 +475,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G48"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +580,7 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -597,16 +596,19 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -623,13 +625,13 @@
       <c r="F2">
         <v>2014</v>
       </c>
-      <c r="G2" s="8">
-        <v>1505495.47140106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1584405.8899564701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -646,13 +648,13 @@
       <c r="F3">
         <v>2015</v>
       </c>
-      <c r="G3" s="8">
-        <v>1520564.3540934401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1594849.92740603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -669,13 +671,13 @@
       <c r="F4">
         <v>2016</v>
       </c>
-      <c r="G4" s="8">
-        <v>1542066.2592517899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1610820.6656942701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -692,13 +694,13 @@
       <c r="F5">
         <v>2017</v>
       </c>
-      <c r="G5" s="8">
-        <v>1588338.69301313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1659787.6840651899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -715,13 +717,13 @@
       <c r="F6">
         <v>2018</v>
       </c>
-      <c r="G6" s="8">
-        <v>1621635.5389815201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1700113.0156867099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -738,13 +740,13 @@
       <c r="F7">
         <v>2019</v>
       </c>
-      <c r="G7" s="8">
-        <v>1657928.8942838099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1731759.1802311901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -761,13 +763,13 @@
       <c r="F8">
         <v>2020</v>
       </c>
-      <c r="G8" s="8">
-        <v>1684775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1638195.7203757199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -784,13 +786,13 @@
       <c r="F9">
         <v>2021</v>
       </c>
-      <c r="G9" s="8">
-        <v>1710503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1738685.47449996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -807,13 +809,13 @@
       <c r="F10">
         <v>2022</v>
       </c>
-      <c r="G10" s="8">
-        <v>1736864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1803949.3904142501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -830,13 +832,13 @@
       <c r="F11">
         <v>2023</v>
       </c>
-      <c r="G11" s="8">
-        <v>1764255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1845470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -853,13 +855,13 @@
       <c r="F12">
         <v>2024</v>
       </c>
-      <c r="G12" s="8">
-        <v>1792774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1879382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -876,13 +878,13 @@
       <c r="F13">
         <v>2025</v>
       </c>
-      <c r="G13" s="8">
-        <v>1822387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1910677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -899,13 +901,13 @@
       <c r="F14">
         <v>2026</v>
       </c>
-      <c r="G14" s="8">
-        <v>1852965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1941028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -922,13 +924,13 @@
       <c r="F15">
         <v>2027</v>
       </c>
-      <c r="G15" s="8">
-        <v>1884677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1971131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -945,13 +947,13 @@
       <c r="F16">
         <v>2028</v>
       </c>
-      <c r="G16" s="8">
-        <v>1917532</v>
+      <c r="G16">
+        <v>2001342</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -968,13 +970,13 @@
       <c r="F17">
         <v>2029</v>
       </c>
-      <c r="G17" s="8">
-        <v>1951559</v>
+      <c r="G17">
+        <v>2031657</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -991,13 +993,13 @@
       <c r="F18">
         <v>2030</v>
       </c>
-      <c r="G18" s="8">
-        <v>1986793</v>
+      <c r="G18">
+        <v>2062052</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1014,13 +1016,13 @@
       <c r="F19">
         <v>2031</v>
       </c>
-      <c r="G19" s="8">
-        <v>2023273</v>
+      <c r="G19">
+        <v>2092519</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1037,13 +1039,13 @@
       <c r="F20">
         <v>2032</v>
       </c>
-      <c r="G20" s="8">
-        <v>2060808</v>
+      <c r="G20">
+        <v>2123074</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1060,13 +1062,13 @@
       <c r="F21">
         <v>2033</v>
       </c>
-      <c r="G21" s="8">
-        <v>2099401</v>
+      <c r="G21">
+        <v>2153713</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1083,13 +1085,13 @@
       <c r="F22">
         <v>2034</v>
       </c>
-      <c r="G22" s="8">
-        <v>2139034</v>
+      <c r="G22">
+        <v>2184405</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1106,13 +1108,13 @@
       <c r="F23">
         <v>2035</v>
       </c>
-      <c r="G23" s="8">
-        <v>2179688</v>
+      <c r="G23">
+        <v>2215121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1129,13 +1131,13 @@
       <c r="F24">
         <v>2036</v>
       </c>
-      <c r="G24" s="8">
-        <v>2221353</v>
+      <c r="G24">
+        <v>2245861</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1152,13 +1154,13 @@
       <c r="F25">
         <v>2037</v>
       </c>
-      <c r="G25" s="8">
-        <v>2264030</v>
+      <c r="G25">
+        <v>2276670</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1175,13 +1177,13 @@
       <c r="F26">
         <v>2038</v>
       </c>
-      <c r="G26" s="8">
-        <v>2307720</v>
+      <c r="G26">
+        <v>2307601</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1198,13 +1200,13 @@
       <c r="F27">
         <v>2039</v>
       </c>
-      <c r="G27" s="8">
-        <v>2352425</v>
+      <c r="G27">
+        <v>2338696</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1221,13 +1223,13 @@
       <c r="F28">
         <v>2040</v>
       </c>
-      <c r="G28" s="8">
-        <v>2398151</v>
+      <c r="G28">
+        <v>2369987</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1244,13 +1246,13 @@
       <c r="F29">
         <v>2041</v>
       </c>
-      <c r="G29" s="8">
-        <v>2444905</v>
+      <c r="G29">
+        <v>2401500</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1267,13 +1269,13 @@
       <c r="F30">
         <v>2042</v>
       </c>
-      <c r="G30" s="8">
-        <v>2492690</v>
+      <c r="G30">
+        <v>2433262</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1290,13 +1292,13 @@
       <c r="F31">
         <v>2043</v>
       </c>
-      <c r="G31" s="8">
-        <v>2541479</v>
+      <c r="G31">
+        <v>2465259</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1313,13 +1315,13 @@
       <c r="F32">
         <v>2044</v>
       </c>
-      <c r="G32" s="8">
-        <v>2591227</v>
+      <c r="G32">
+        <v>2497441</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1336,13 +1338,13 @@
       <c r="F33">
         <v>2045</v>
       </c>
-      <c r="G33" s="8">
-        <v>2641896</v>
+      <c r="G33">
+        <v>2529752</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1359,13 +1361,13 @@
       <c r="F34">
         <v>2046</v>
       </c>
-      <c r="G34" s="8">
-        <v>2693479</v>
+      <c r="G34">
+        <v>2562170</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1382,13 +1384,13 @@
       <c r="F35">
         <v>2047</v>
       </c>
-      <c r="G35" s="8">
-        <v>2745988</v>
+      <c r="G35">
+        <v>2594744</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1405,13 +1407,13 @@
       <c r="F36">
         <v>2048</v>
       </c>
-      <c r="G36" s="8">
-        <v>2799434</v>
+      <c r="G36">
+        <v>2627496</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -1428,13 +1430,13 @@
       <c r="F37">
         <v>2049</v>
       </c>
-      <c r="G37" s="8">
-        <v>2853831</v>
+      <c r="G37">
+        <v>2660443</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -1451,13 +1453,13 @@
       <c r="F38">
         <v>2050</v>
       </c>
-      <c r="G38" s="8">
-        <v>2909216</v>
+      <c r="G38">
+        <v>2693609</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -1474,13 +1476,13 @@
       <c r="F39">
         <v>2051</v>
       </c>
-      <c r="G39" s="8">
-        <v>2965657</v>
+      <c r="G39">
+        <v>2727039</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -1497,13 +1499,13 @@
       <c r="F40">
         <v>2052</v>
       </c>
-      <c r="G40" s="8">
-        <v>3023227</v>
+      <c r="G40">
+        <v>2760775</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -1520,13 +1522,13 @@
       <c r="F41">
         <v>2053</v>
       </c>
-      <c r="G41" s="8">
-        <v>3081985</v>
+      <c r="G41">
+        <v>2794863</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -1543,13 +1545,13 @@
       <c r="F42">
         <v>2054</v>
       </c>
-      <c r="G42" s="8">
-        <v>3141981</v>
+      <c r="G42">
+        <v>2829321</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -1566,13 +1568,13 @@
       <c r="F43">
         <v>2055</v>
       </c>
-      <c r="G43" s="8">
-        <v>3203277</v>
+      <c r="G43">
+        <v>2864165</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -1589,13 +1591,13 @@
       <c r="F44">
         <v>2056</v>
       </c>
-      <c r="G44" s="8">
-        <v>3265966</v>
+      <c r="G44">
+        <v>2899452</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -1612,13 +1614,13 @@
       <c r="F45">
         <v>2057</v>
       </c>
-      <c r="G45" s="8">
-        <v>3330145</v>
+      <c r="G45">
+        <v>2935248</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -1635,13 +1637,13 @@
       <c r="F46">
         <v>2058</v>
       </c>
-      <c r="G46" s="8">
-        <v>3395881</v>
+      <c r="G46">
+        <v>2971639</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -1658,13 +1660,13 @@
       <c r="F47">
         <v>2059</v>
       </c>
-      <c r="G47" s="8">
-        <v>3463205</v>
+      <c r="G47">
+        <v>3008671</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -1681,8 +1683,8 @@
       <c r="F48">
         <v>2060</v>
       </c>
-      <c r="G48" s="8">
-        <v>3532133</v>
+      <c r="G48">
+        <v>3046355</v>
       </c>
     </row>
   </sheetData>
@@ -1697,8 +1699,8 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,10 +1710,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1719,423 +1721,423 @@
       <c r="A2">
         <v>2014</v>
       </c>
-      <c r="B2" s="6">
-        <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
-        <v>1585155773108.0776</v>
+      <c r="B2" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A2,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1668241579679.8335</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="6">
-        <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
-        <v>1601021995788.8308</v>
+      <c r="B3" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A3,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1679238242620.5198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="6">
-        <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
-        <v>1623661631538.0244</v>
+      <c r="B4" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A4,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1696054040794.1548</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="6">
-        <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
-        <v>1672382479196.4292</v>
+      <c r="B5" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A5,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1747612051653.0764</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="6">
-        <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
-        <v>1707441161614.0952</v>
+      <c r="B6" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A6,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1790071118077.8079</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B7" s="6">
-        <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
-        <v>1745654907703.5122</v>
+      <c r="B7" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A7,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1823391776543.6394</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B8" s="6">
-        <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
-        <v>1773921521765.0513</v>
+      <c r="B8" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A8,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1724877592104.5193</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" s="6">
-        <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
-        <v>1801010867767.9128</v>
+      <c r="B9" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A9,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1830684561912.2783</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="6">
-        <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
-        <v>1828766707708.1118</v>
+      <c r="B10" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A10,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1899401788268.928</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
-      <c r="B11" s="6">
-        <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
-        <v>1857607048051.8765</v>
+      <c r="B11" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A11,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1943119378416.5537</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" s="6">
-        <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
-        <v>1887635074274.4983</v>
+      <c r="B12" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A12,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>1978825764519.2061</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="6">
-        <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
-        <v>1918814987333.5288</v>
+      <c r="B13" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A13,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2011776677266.3904</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2026</v>
       </c>
-      <c r="B14" s="6">
-        <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
-        <v>1951010961450.2698</v>
+      <c r="B14" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A14,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2043733640129.1411</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2027</v>
       </c>
-      <c r="B15" s="6">
-        <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
-        <v>1984400938923.946</v>
+      <c r="B15" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A15,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2075429480564.6255</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2028</v>
       </c>
-      <c r="B16" s="6">
-        <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
-        <v>2018994395971.677</v>
+      <c r="B16" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A16,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2107239035605.5325</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2029</v>
       </c>
-      <c r="B17" s="6">
-        <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
-        <v>2054821867070.8442</v>
+      <c r="B17" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A17,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2139158093599.8093</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2030</v>
       </c>
-      <c r="B18" s="6">
-        <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
-        <v>2091920204176.9087</v>
+      <c r="B18" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A18,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2171161384635.1396</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2031</v>
       </c>
-      <c r="B19" s="6">
-        <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
-        <v>2130330470897.384</v>
+      <c r="B19" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A19,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2203240485407.418</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2032</v>
       </c>
-      <c r="B20" s="6">
-        <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
-        <v>2169851560846.7549</v>
+      <c r="B20" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A20,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2235412242524.856</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2033</v>
       </c>
-      <c r="B21" s="6">
-        <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
-        <v>2210486632764.0605</v>
+      <c r="B21" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A21,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2267672444335.3999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
-      <c r="B22" s="6">
-        <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
-        <v>2252216734215.064</v>
+      <c r="B22" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A22,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2299988450535.6421</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2035</v>
       </c>
-      <c r="B23" s="6">
-        <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
-        <v>2295021859852.5146</v>
+      <c r="B23" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A23,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2332329726648.2002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2036</v>
       </c>
-      <c r="B24" s="6">
-        <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
-        <v>2338891480546.2817</v>
+      <c r="B24" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A24,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2364696272673.0747</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2037</v>
       </c>
-      <c r="B25" s="6">
-        <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
-        <v>2383826649209.3774</v>
+      <c r="B25" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A25,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2397135469695.8579</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2038</v>
       </c>
-      <c r="B26" s="6">
-        <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
-        <v>2429828418754.8149</v>
+      <c r="B26" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A26,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2429703122106.248</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2039</v>
       </c>
-      <c r="B27" s="6">
-        <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
-        <v>2476898895008.6216</v>
+      <c r="B27" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A27,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2462443452250.7979</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2040</v>
       </c>
-      <c r="B28" s="6">
-        <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
-        <v>2525044395448.8755</v>
+      <c r="B28" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A28,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2495390153345.9297</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2041</v>
       </c>
-      <c r="B29" s="6">
-        <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
-        <v>2574272290466.6689</v>
+      <c r="B29" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A29,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2528570601129.9849</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2042</v>
       </c>
-      <c r="B30" s="6">
-        <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
-        <v>2624585738801.042</v>
+      <c r="B30" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A30,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2562013224254.3198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2043</v>
       </c>
-      <c r="B31" s="6">
-        <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
-        <v>2675956311800.6382</v>
+      <c r="B31" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A31,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2595703281936.7505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2044</v>
       </c>
-      <c r="B32" s="6">
-        <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
-        <v>2728336628379.8657</v>
+      <c r="B32" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A32,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2629588128526.6167</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2045</v>
       </c>
-      <c r="B33" s="6">
-        <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
-        <v>2781686677844.2236</v>
+      <c r="B33" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A33,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2663608800895.1831</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2046</v>
       </c>
-      <c r="B34" s="6">
-        <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
-        <v>2835999089802.6196</v>
+      <c r="B34" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A34,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2697742134956.1582</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2047</v>
       </c>
-      <c r="B35" s="6">
-        <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
-        <v>2891286499211.2119</v>
+      <c r="B35" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A35,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2732039723447.188</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2048</v>
       </c>
-      <c r="B36" s="6">
-        <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
-        <v>2947560488113.1455</v>
+      <c r="B36" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A36,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2766524730454.562</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2049</v>
       </c>
-      <c r="B37" s="6">
-        <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
-        <v>3004835797290.604</v>
+      <c r="B37" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A37,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2801215055499.5049</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2050</v>
       </c>
-      <c r="B38" s="6">
-        <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
-        <v>3063151384525.0762</v>
+      <c r="B38" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A38,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2836135968494.332</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2051</v>
       </c>
-      <c r="B39" s="6">
-        <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
-        <v>3122578847901.4565</v>
+      <c r="B39" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A39,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2871334850524.6357</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2052</v>
       </c>
-      <c r="B40" s="6">
-        <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
-        <v>3183195050069.707</v>
+      <c r="B40" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A40,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2906855923936.9702</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2053</v>
       </c>
-      <c r="B41" s="6">
-        <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
-        <v>3245062112897.604</v>
+      <c r="B41" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A41,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2942747622729.9409</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2054</v>
       </c>
-      <c r="B42" s="6">
-        <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
-        <v>3308232682035.8071</v>
+      <c r="B42" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A42,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>2979028899337.7847</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2055</v>
       </c>
-      <c r="B43" s="6">
-        <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
-        <v>3372772038091.1323</v>
+      <c r="B43" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A43,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3015716600368.7124</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2056</v>
       </c>
-      <c r="B44" s="6">
-        <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
-        <v>3438778101973.8047</v>
+      <c r="B44" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A44,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3052870741864.4751</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2057</v>
       </c>
-      <c r="B45" s="6">
-        <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
-        <v>3506353006246.1021</v>
+      <c r="B45" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A45,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3090560816083.9414</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2058</v>
       </c>
-      <c r="B46" s="6">
-        <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
-        <v>3575567296079.9063</v>
+      <c r="B46" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A46,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3128877373546.2451</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2059</v>
       </c>
-      <c r="B47" s="6">
-        <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
-        <v>3646453611778.626</v>
+      <c r="B47" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A47,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3167868848249.9907</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2060</v>
       </c>
-      <c r="B48" s="6">
-        <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
-        <v>3719028799950.4717</v>
+      <c r="B48" s="5">
+        <f>INDEX('OECD Data'!G:G,MATCH(A48,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
+        <v>3207546822238.3242</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\io-model\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD9EFAF-F152-49E6-B0D1-7E9C3DAF8AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723CE338-3078-430E-87B7-B98D65A6C8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="1020" windowWidth="17400" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD Data" sheetId="3" r:id="rId2"/>
-    <sheet name="BGDP" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="BGDP" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
   <si>
     <t>BGDP BAU Gross Domestic Product</t>
   </si>
@@ -117,6 +118,135 @@
   </si>
   <si>
     <t>Flag Codes</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 01T03] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 05] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 06] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 07T08] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 09] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 10T12] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 13T15] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 16] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 17T18] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 19] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 20] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 21] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 22] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 231] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 239] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 241] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 242] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 25] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 26] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 27] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 28] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 29] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 30] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 31T33] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 351] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 352T353] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 36T39] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 41T43] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 45T47] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 49T53] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 55T56] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 58T60] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 61] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 62T63] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 64T66] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 68] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 69T82] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 84] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 85] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 86T88] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 90T96] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Value Added by ISIC Code by Year[ISIC 97T98] : MostRecentRun</t>
   </si>
 </sst>
 </file>
@@ -187,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1693,6 +1823,4497 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D103F13F-F110-4298-B3D1-EC807538B4C1}">
+  <dimension ref="A1:AG45"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6">
+        <v>32299200000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>32299200000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>32855800000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>33404800000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>33945300000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>34476300000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>34996900000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>35506100000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>36002900000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>36508100000</v>
+      </c>
+      <c r="L2" s="6">
+        <v>37021900000</v>
+      </c>
+      <c r="M2" s="6">
+        <v>37544300000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>38075600000</v>
+      </c>
+      <c r="O2" s="6">
+        <v>38615900000</v>
+      </c>
+      <c r="P2" s="6">
+        <v>39165300000</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>39724100000</v>
+      </c>
+      <c r="R2" s="6">
+        <v>40292200000</v>
+      </c>
+      <c r="S2" s="6">
+        <v>40870000000</v>
+      </c>
+      <c r="T2" s="6">
+        <v>41457600000</v>
+      </c>
+      <c r="U2" s="6">
+        <v>42055100000</v>
+      </c>
+      <c r="V2" s="6">
+        <v>42662700000</v>
+      </c>
+      <c r="W2" s="6">
+        <v>43280500000</v>
+      </c>
+      <c r="X2" s="6">
+        <v>43908900000</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>44547800000</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>45197600000</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>45858400000</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>46530300000</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>47213600000</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>47908500000</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>48615100000</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>49333700000</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>50064400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
+        <v>773431000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>773431000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>766521000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>760629000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>755725000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>751784000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>748786000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>746715000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>745559000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>744406000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>743254000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>742105000</v>
+      </c>
+      <c r="N3" s="6">
+        <v>740959000</v>
+      </c>
+      <c r="O3" s="6">
+        <v>739815000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>738673000</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>737533000</v>
+      </c>
+      <c r="R3" s="6">
+        <v>736395000</v>
+      </c>
+      <c r="S3" s="6">
+        <v>735260000</v>
+      </c>
+      <c r="T3" s="6">
+        <v>734127000</v>
+      </c>
+      <c r="U3" s="6">
+        <v>732997000</v>
+      </c>
+      <c r="V3" s="6">
+        <v>731868000</v>
+      </c>
+      <c r="W3" s="6">
+        <v>730742000</v>
+      </c>
+      <c r="X3" s="6">
+        <v>729618000</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>728497000</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>727377000</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>726260000</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>725145000</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>724032000</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>722922000</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>721814000</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>720708000</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>719604000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <v>59983300000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>59983300000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>62582400000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>65158900000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>67696200000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>70177100000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>72584100000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>74899700000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>77106300000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>79387900000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>81747000000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>84186400000</v>
+      </c>
+      <c r="N4" s="6">
+        <v>86708700000</v>
+      </c>
+      <c r="O4" s="6">
+        <v>89316800000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>92013500000</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>94801900000</v>
+      </c>
+      <c r="R4" s="6">
+        <v>97685200000</v>
+      </c>
+      <c r="S4" s="6">
+        <v>100666000000</v>
+      </c>
+      <c r="T4" s="6">
+        <v>103749000000</v>
+      </c>
+      <c r="U4" s="6">
+        <v>106937000000</v>
+      </c>
+      <c r="V4" s="6">
+        <v>110232000000</v>
+      </c>
+      <c r="W4" s="6">
+        <v>113640000000</v>
+      </c>
+      <c r="X4" s="6">
+        <v>117164000000</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>120807000000</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>124575000000</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>128470000000</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>132498000000</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>136663000000</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>140970000000</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>145423000000</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>150027000000</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>154788000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6">
+        <v>16438300000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16438300000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16287100000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>16183800000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16127100000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>16116100000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>16150600000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>16230900000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>16357500000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>16485500000</v>
+      </c>
+      <c r="L5" s="6">
+        <v>16614700000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>16745200000</v>
+      </c>
+      <c r="N5" s="6">
+        <v>16877000000</v>
+      </c>
+      <c r="O5" s="6">
+        <v>17010200000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>17144600000</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>17280500000</v>
+      </c>
+      <c r="R5" s="6">
+        <v>17417700000</v>
+      </c>
+      <c r="S5" s="6">
+        <v>17556300000</v>
+      </c>
+      <c r="T5" s="6">
+        <v>17696200000</v>
+      </c>
+      <c r="U5" s="6">
+        <v>17837600000</v>
+      </c>
+      <c r="V5" s="6">
+        <v>17980400000</v>
+      </c>
+      <c r="W5" s="6">
+        <v>18124600000</v>
+      </c>
+      <c r="X5" s="6">
+        <v>18270300000</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>18417500000</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>18566100000</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>18716200000</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>18867800000</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>19021000000</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>19175700000</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>19331900000</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>19489700000</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>19649100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10141600000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10141600000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10168000000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10229000000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10325300000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10457900000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10628400000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10838900000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>11092000000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>11352500000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>11620500000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>11896300000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>12180100000</v>
+      </c>
+      <c r="O6" s="6">
+        <v>12472100000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>12772600000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>13081800000</v>
+      </c>
+      <c r="R6" s="6">
+        <v>13399900000</v>
+      </c>
+      <c r="S6" s="6">
+        <v>13727300000</v>
+      </c>
+      <c r="T6" s="6">
+        <v>14064200000</v>
+      </c>
+      <c r="U6" s="6">
+        <v>14410900000</v>
+      </c>
+      <c r="V6" s="6">
+        <v>14767600000</v>
+      </c>
+      <c r="W6" s="6">
+        <v>15134600000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>15512300000</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>15900900000</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>16300900000</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>16712400000</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>17135800000</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>17571600000</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>18019900000</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>18481300000</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>18956000000</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>19444600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6">
+        <v>26125900000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>26125900000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>26351200000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>26609900000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>26903100000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>27232200000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>27598700000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>28004000000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>28450100000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>28905000000</v>
+      </c>
+      <c r="L7" s="6">
+        <v>29368800000</v>
+      </c>
+      <c r="M7" s="6">
+        <v>29841700000</v>
+      </c>
+      <c r="N7" s="6">
+        <v>30323800000</v>
+      </c>
+      <c r="O7" s="6">
+        <v>30815400000</v>
+      </c>
+      <c r="P7" s="6">
+        <v>31316500000</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>31827600000</v>
+      </c>
+      <c r="R7" s="6">
+        <v>32348600000</v>
+      </c>
+      <c r="S7" s="6">
+        <v>32879800000</v>
+      </c>
+      <c r="T7" s="6">
+        <v>33421400000</v>
+      </c>
+      <c r="U7" s="6">
+        <v>33973600000</v>
+      </c>
+      <c r="V7" s="6">
+        <v>34536600000</v>
+      </c>
+      <c r="W7" s="6">
+        <v>35110700000</v>
+      </c>
+      <c r="X7" s="6">
+        <v>35696000000</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>36292700000</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>36901200000</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>37521500000</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>38154000000</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>38798900000</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>39456400000</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>40126800000</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>40810400000</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>41507300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1760080000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1760080000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1750070000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1737420000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1722180000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1704440000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1684310000</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1661880000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1637300000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1613180000</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1589520000</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1566310000</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1543540000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1521210000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1499300000</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1477820000</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1456740000</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1436060000</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1415780000</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1395880000</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1376370000</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1357230000</v>
+      </c>
+      <c r="X8" s="6">
+        <v>1338450000</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1320030000</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1301960000</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1284230000</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1266850000</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1249790000</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1233060000</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>1216650000</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1200550000</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>1184760000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8949830000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8949830000</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9106060000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9247190000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9372180000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9480110000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9570160000</v>
+      </c>
+      <c r="I9" s="6">
+        <v>9641630000</v>
+      </c>
+      <c r="J9" s="6">
+        <v>9693950000</v>
+      </c>
+      <c r="K9" s="6">
+        <v>9746610000</v>
+      </c>
+      <c r="L9" s="6">
+        <v>9799620000</v>
+      </c>
+      <c r="M9" s="6">
+        <v>9852980000</v>
+      </c>
+      <c r="N9" s="6">
+        <v>9906690000</v>
+      </c>
+      <c r="O9" s="6">
+        <v>9960750000</v>
+      </c>
+      <c r="P9" s="6">
+        <v>10015200000</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>10069900000</v>
+      </c>
+      <c r="R9" s="6">
+        <v>10125100000</v>
+      </c>
+      <c r="S9" s="6">
+        <v>10180600000</v>
+      </c>
+      <c r="T9" s="6">
+        <v>10236400000</v>
+      </c>
+      <c r="U9" s="6">
+        <v>10292700000</v>
+      </c>
+      <c r="V9" s="6">
+        <v>10349300000</v>
+      </c>
+      <c r="W9" s="6">
+        <v>10406200000</v>
+      </c>
+      <c r="X9" s="6">
+        <v>10463600000</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>10521300000</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>10579400000</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>10637900000</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>10696800000</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>10756000000</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>10815700000</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>10875700000</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>10936200000</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>10997000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9740480000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9740480000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9747660000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9759010000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9774530000</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9794260000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9818220000</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9846440000</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9878970000</v>
+      </c>
+      <c r="K10" s="6">
+        <v>9911650000</v>
+      </c>
+      <c r="L10" s="6">
+        <v>9944450000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>9977390000</v>
+      </c>
+      <c r="N10" s="6">
+        <v>10010500000</v>
+      </c>
+      <c r="O10" s="6">
+        <v>10043700000</v>
+      </c>
+      <c r="P10" s="6">
+        <v>10077000000</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>10110500000</v>
+      </c>
+      <c r="R10" s="6">
+        <v>10144200000</v>
+      </c>
+      <c r="S10" s="6">
+        <v>10177900000</v>
+      </c>
+      <c r="T10" s="6">
+        <v>10211900000</v>
+      </c>
+      <c r="U10" s="6">
+        <v>10245900000</v>
+      </c>
+      <c r="V10" s="6">
+        <v>10280100000</v>
+      </c>
+      <c r="W10" s="6">
+        <v>10314400000</v>
+      </c>
+      <c r="X10" s="6">
+        <v>10348900000</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>10383500000</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>10418300000</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>10453200000</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>10488300000</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>10523500000</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>10558800000</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>10594300000</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>10630000000</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>10665800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8486950000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8486950000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8533700000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8580090000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8626090000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8671710000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8716930000</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8761740000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8806120000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>8850780000</v>
+      </c>
+      <c r="L11" s="6">
+        <v>8895730000</v>
+      </c>
+      <c r="M11" s="6">
+        <v>8940950000</v>
+      </c>
+      <c r="N11" s="6">
+        <v>8986460000</v>
+      </c>
+      <c r="O11" s="6">
+        <v>9032260000</v>
+      </c>
+      <c r="P11" s="6">
+        <v>9078350000</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>9124720000</v>
+      </c>
+      <c r="R11" s="6">
+        <v>9171390000</v>
+      </c>
+      <c r="S11" s="6">
+        <v>9218360000</v>
+      </c>
+      <c r="T11" s="6">
+        <v>9265610000</v>
+      </c>
+      <c r="U11" s="6">
+        <v>9313170000</v>
+      </c>
+      <c r="V11" s="6">
+        <v>9361020000</v>
+      </c>
+      <c r="W11" s="6">
+        <v>9409180000</v>
+      </c>
+      <c r="X11" s="6">
+        <v>9457640000</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>9506400000</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>9555470000</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>9604850000</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>9654540000</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>9704550000</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>9754870000</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>9805500000</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>9856450000</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>9907730000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12351200000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12351200000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>12569300000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12787200000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>13004900000</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13222000000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>13438400000</v>
+      </c>
+      <c r="I12" s="6">
+        <v>13653900000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>13868300000</v>
+      </c>
+      <c r="K12" s="6">
+        <v>14086700000</v>
+      </c>
+      <c r="L12" s="6">
+        <v>14309200000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>14535900000</v>
+      </c>
+      <c r="N12" s="6">
+        <v>14767000000</v>
+      </c>
+      <c r="O12" s="6">
+        <v>15002400000</v>
+      </c>
+      <c r="P12" s="6">
+        <v>15242300000</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>15486700000</v>
+      </c>
+      <c r="R12" s="6">
+        <v>15735800000</v>
+      </c>
+      <c r="S12" s="6">
+        <v>15989600000</v>
+      </c>
+      <c r="T12" s="6">
+        <v>16248200000</v>
+      </c>
+      <c r="U12" s="6">
+        <v>16511700000</v>
+      </c>
+      <c r="V12" s="6">
+        <v>16780200000</v>
+      </c>
+      <c r="W12" s="6">
+        <v>17053700000</v>
+      </c>
+      <c r="X12" s="6">
+        <v>17332500000</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>17616600000</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>17906000000</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>18200900000</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>18501400000</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>18807600000</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>19119600000</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>19437500000</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>19761400000</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>20091500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3810880000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3810880000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3808300000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3815170000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3831530000</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3857490000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3893280000</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3939190000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3995650000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4053130000</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4111640000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>4171200000</v>
+      </c>
+      <c r="N13" s="6">
+        <v>4231840000</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4293560000</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4356400000</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>4420370000</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4485490000</v>
+      </c>
+      <c r="S13" s="6">
+        <v>4551780000</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4619260000</v>
+      </c>
+      <c r="U13" s="6">
+        <v>4687960000</v>
+      </c>
+      <c r="V13" s="6">
+        <v>4757900000</v>
+      </c>
+      <c r="W13" s="6">
+        <v>4829090000</v>
+      </c>
+      <c r="X13" s="6">
+        <v>4901570000</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>4975350000</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>5050460000</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>5126920000</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>5204760000</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>5284000000</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>5364670000</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>5446780000</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>5530380000</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>5615480000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6">
+        <v>8390630000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8390630000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8512210000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8635680000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8761040000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>8888340000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9017590000</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9148820000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>9282040000</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9417620000</v>
+      </c>
+      <c r="L14" s="6">
+        <v>9555600000</v>
+      </c>
+      <c r="M14" s="6">
+        <v>9696020000</v>
+      </c>
+      <c r="N14" s="6">
+        <v>9838920000</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9984360000</v>
+      </c>
+      <c r="P14" s="6">
+        <v>10132400000</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>10283000000</v>
+      </c>
+      <c r="R14" s="6">
+        <v>10436300000</v>
+      </c>
+      <c r="S14" s="6">
+        <v>10592300000</v>
+      </c>
+      <c r="T14" s="6">
+        <v>10751000000</v>
+      </c>
+      <c r="U14" s="6">
+        <v>10912600000</v>
+      </c>
+      <c r="V14" s="6">
+        <v>11077000000</v>
+      </c>
+      <c r="W14" s="6">
+        <v>11244400000</v>
+      </c>
+      <c r="X14" s="6">
+        <v>11414700000</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>11588000000</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>11764400000</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>11943900000</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>12126600000</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>12312500000</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>12501700000</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>12694200000</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>12890200000</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>13089600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4651450000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4651450000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4727280000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4800900000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4872120000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4940750000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5006620000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5069540000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5129360000</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5190020000</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5251560000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>5313980000</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5377280000</v>
+      </c>
+      <c r="O16" s="6">
+        <v>5441500000</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5506630000</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>5572690000</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5639700000</v>
+      </c>
+      <c r="S16" s="6">
+        <v>5707670000</v>
+      </c>
+      <c r="T16" s="6">
+        <v>5776610000</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5846530000</v>
+      </c>
+      <c r="V16" s="6">
+        <v>5917460000</v>
+      </c>
+      <c r="W16" s="6">
+        <v>5989390000</v>
+      </c>
+      <c r="X16" s="6">
+        <v>6062360000</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>6136370000</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>6211440000</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>6287580000</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>6364810000</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>6443150000</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>6522600000</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>6603200000</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>6684940000</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>6767850000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5152490000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5152490000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5218800000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5277510000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5328250000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5370700000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5404590000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5429700000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5445850000</v>
+      </c>
+      <c r="K17" s="6">
+        <v>5462060000</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5478330000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5494660000</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5511050000</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5527500000</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5544010000</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>5560580000</v>
+      </c>
+      <c r="R17" s="6">
+        <v>5577210000</v>
+      </c>
+      <c r="S17" s="6">
+        <v>5593900000</v>
+      </c>
+      <c r="T17" s="6">
+        <v>5610650000</v>
+      </c>
+      <c r="U17" s="6">
+        <v>5627460000</v>
+      </c>
+      <c r="V17" s="6">
+        <v>5644330000</v>
+      </c>
+      <c r="W17" s="6">
+        <v>5661270000</v>
+      </c>
+      <c r="X17" s="6">
+        <v>5678260000</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>5695320000</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>5712440000</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>5729630000</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>5746870000</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>5764180000</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>5781550000</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>5798980000</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>5816480000</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>5834040000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4674300000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4674300000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4744740000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4811800000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4875260000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4934890000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4990500000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5041890000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5088860000</v>
+      </c>
+      <c r="K18" s="6">
+        <v>5136370000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5184420000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5233010000</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5282160000</v>
+      </c>
+      <c r="O18" s="6">
+        <v>5331860000</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5382120000</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>5432950000</v>
+      </c>
+      <c r="R18" s="6">
+        <v>5484360000</v>
+      </c>
+      <c r="S18" s="6">
+        <v>5536350000</v>
+      </c>
+      <c r="T18" s="6">
+        <v>5588930000</v>
+      </c>
+      <c r="U18" s="6">
+        <v>5642100000</v>
+      </c>
+      <c r="V18" s="6">
+        <v>5695880000</v>
+      </c>
+      <c r="W18" s="6">
+        <v>5750270000</v>
+      </c>
+      <c r="X18" s="6">
+        <v>5805270000</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>5860900000</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>5917150000</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>5974050000</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>6031590000</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>6089780000</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>6148630000</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>6208140000</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>6268340000</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>6329210000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6">
+        <v>12433000000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12433000000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>12684700000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12920700000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>13139700000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>13340200000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>13521100000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>13681300000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>13819700000</v>
+      </c>
+      <c r="K19" s="6">
+        <v>13959700000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>14101500000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>14244900000</v>
+      </c>
+      <c r="N19" s="6">
+        <v>14390200000</v>
+      </c>
+      <c r="O19" s="6">
+        <v>14537200000</v>
+      </c>
+      <c r="P19" s="6">
+        <v>14685900000</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>14836500000</v>
+      </c>
+      <c r="R19" s="6">
+        <v>14989000000</v>
+      </c>
+      <c r="S19" s="6">
+        <v>15143300000</v>
+      </c>
+      <c r="T19" s="6">
+        <v>15299400000</v>
+      </c>
+      <c r="U19" s="6">
+        <v>15457500000</v>
+      </c>
+      <c r="V19" s="6">
+        <v>15617500000</v>
+      </c>
+      <c r="W19" s="6">
+        <v>15779400000</v>
+      </c>
+      <c r="X19" s="6">
+        <v>15943300000</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>16109200000</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>16277100000</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>16447100000</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>16619100000</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>16793300000</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>16969500000</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>17147900000</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>17328500000</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>17511200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5156310000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5156310000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5238330000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5324890000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5416220000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5512530000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5614060000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5721060000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5833810000</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5949250000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>6067440000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>6188450000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>6312350000</v>
+      </c>
+      <c r="O20" s="6">
+        <v>6439190000</v>
+      </c>
+      <c r="P20" s="6">
+        <v>6569070000</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>6702030000</v>
+      </c>
+      <c r="R20" s="6">
+        <v>6838170000</v>
+      </c>
+      <c r="S20" s="6">
+        <v>6977550000</v>
+      </c>
+      <c r="T20" s="6">
+        <v>7120260000</v>
+      </c>
+      <c r="U20" s="6">
+        <v>7266370000</v>
+      </c>
+      <c r="V20" s="6">
+        <v>7415960000</v>
+      </c>
+      <c r="W20" s="6">
+        <v>7569110000</v>
+      </c>
+      <c r="X20" s="6">
+        <v>7725920000</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>7886470000</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>8050840000</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>8219130000</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>8391430000</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>8567840000</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>8748460000</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>8933380000</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>9122710000</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>9316560000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3254950000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3254950000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3312920000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3369390000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3424190000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3477180000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3528220000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3577170000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3623880000</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3671320000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>3719520000</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3768480000</v>
+      </c>
+      <c r="N21" s="6">
+        <v>3818200000</v>
+      </c>
+      <c r="O21" s="6">
+        <v>3868720000</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3920030000</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>3972140000</v>
+      </c>
+      <c r="R21" s="6">
+        <v>4025090000</v>
+      </c>
+      <c r="S21" s="6">
+        <v>4078860000</v>
+      </c>
+      <c r="T21" s="6">
+        <v>4133490000</v>
+      </c>
+      <c r="U21" s="6">
+        <v>4188970000</v>
+      </c>
+      <c r="V21" s="6">
+        <v>4245330000</v>
+      </c>
+      <c r="W21" s="6">
+        <v>4302580000</v>
+      </c>
+      <c r="X21" s="6">
+        <v>4360730000</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>4419800000</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>4479810000</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>4540760000</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>4602670000</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>4665550000</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>4729430000</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>4794320000</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>4860230000</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>4927180000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="6">
+        <v>12735500000</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12735500000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>12980400000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>13216900000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>13444300000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>13661700000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>13868400000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>14063700000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>14246600000</v>
+      </c>
+      <c r="K22" s="6">
+        <v>14432500000</v>
+      </c>
+      <c r="L22" s="6">
+        <v>14621200000</v>
+      </c>
+      <c r="M22" s="6">
+        <v>14813000000</v>
+      </c>
+      <c r="N22" s="6">
+        <v>15007700000</v>
+      </c>
+      <c r="O22" s="6">
+        <v>15205500000</v>
+      </c>
+      <c r="P22" s="6">
+        <v>15406400000</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>15610400000</v>
+      </c>
+      <c r="R22" s="6">
+        <v>15817600000</v>
+      </c>
+      <c r="S22" s="6">
+        <v>16028100000</v>
+      </c>
+      <c r="T22" s="6">
+        <v>16241900000</v>
+      </c>
+      <c r="U22" s="6">
+        <v>16459000000</v>
+      </c>
+      <c r="V22" s="6">
+        <v>16679500000</v>
+      </c>
+      <c r="W22" s="6">
+        <v>16903500000</v>
+      </c>
+      <c r="X22" s="6">
+        <v>17131000000</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>17362100000</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>17596800000</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>17835100000</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>18077200000</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>18323100000</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>18572900000</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>18826500000</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>19084200000</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>19345900000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="6">
+        <v>30669000000</v>
+      </c>
+      <c r="C23" s="6">
+        <v>30669000000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>32385700000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>34009900000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>35511000000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>36859500000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>38027300000</v>
+      </c>
+      <c r="I23" s="6">
+        <v>38989300000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>39723300000</v>
+      </c>
+      <c r="K23" s="6">
+        <v>40473200000</v>
+      </c>
+      <c r="L23" s="6">
+        <v>41239100000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>42021400000</v>
+      </c>
+      <c r="N23" s="6">
+        <v>42820500000</v>
+      </c>
+      <c r="O23" s="6">
+        <v>43636700000</v>
+      </c>
+      <c r="P23" s="6">
+        <v>44470500000</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>45322100000</v>
+      </c>
+      <c r="R23" s="6">
+        <v>46192000000</v>
+      </c>
+      <c r="S23" s="6">
+        <v>47080500000</v>
+      </c>
+      <c r="T23" s="6">
+        <v>47988000000</v>
+      </c>
+      <c r="U23" s="6">
+        <v>48915100000</v>
+      </c>
+      <c r="V23" s="6">
+        <v>49862000000</v>
+      </c>
+      <c r="W23" s="6">
+        <v>50829200000</v>
+      </c>
+      <c r="X23" s="6">
+        <v>51817100000</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>52826200000</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>53857000000</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>54909800000</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>55985300000</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>57083800000</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>58205800000</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>59351900000</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>60522600000</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>61718300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6">
+        <v>14146800000</v>
+      </c>
+      <c r="C25" s="6">
+        <v>14146800000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14227800000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>14320900000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>14426200000</v>
+      </c>
+      <c r="G25" s="6">
+        <v>14544100000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>14674900000</v>
+      </c>
+      <c r="I25" s="6">
+        <v>14819100000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>14977000000</v>
+      </c>
+      <c r="K25" s="6">
+        <v>15137100000</v>
+      </c>
+      <c r="L25" s="6">
+        <v>15299200000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>15463500000</v>
+      </c>
+      <c r="N25" s="6">
+        <v>15629900000</v>
+      </c>
+      <c r="O25" s="6">
+        <v>15798600000</v>
+      </c>
+      <c r="P25" s="6">
+        <v>15969400000</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>16142600000</v>
+      </c>
+      <c r="R25" s="6">
+        <v>16318000000</v>
+      </c>
+      <c r="S25" s="6">
+        <v>16495700000</v>
+      </c>
+      <c r="T25" s="6">
+        <v>16675800000</v>
+      </c>
+      <c r="U25" s="6">
+        <v>16858200000</v>
+      </c>
+      <c r="V25" s="6">
+        <v>17043100000</v>
+      </c>
+      <c r="W25" s="6">
+        <v>17230400000</v>
+      </c>
+      <c r="X25" s="6">
+        <v>17420200000</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>17612500000</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>17807300000</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>18004700000</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>18204700000</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>18407400000</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>18612700000</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>18820800000</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>19031500000</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>19245100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6">
+        <v>27909900000</v>
+      </c>
+      <c r="C26" s="6">
+        <v>27909900000</v>
+      </c>
+      <c r="D26" s="6">
+        <v>28059200000</v>
+      </c>
+      <c r="E26" s="6">
+        <v>28247900000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>28476900000</v>
+      </c>
+      <c r="G26" s="6">
+        <v>28747300000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>29060400000</v>
+      </c>
+      <c r="I26" s="6">
+        <v>29417900000</v>
+      </c>
+      <c r="J26" s="6">
+        <v>29821600000</v>
+      </c>
+      <c r="K26" s="6">
+        <v>30232200000</v>
+      </c>
+      <c r="L26" s="6">
+        <v>30649700000</v>
+      </c>
+      <c r="M26" s="6">
+        <v>31074300000</v>
+      </c>
+      <c r="N26" s="6">
+        <v>31506100000</v>
+      </c>
+      <c r="O26" s="6">
+        <v>31945300000</v>
+      </c>
+      <c r="P26" s="6">
+        <v>32392000000</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>32846200000</v>
+      </c>
+      <c r="R26" s="6">
+        <v>33308200000</v>
+      </c>
+      <c r="S26" s="6">
+        <v>33778000000</v>
+      </c>
+      <c r="T26" s="6">
+        <v>34255800000</v>
+      </c>
+      <c r="U26" s="6">
+        <v>34741700000</v>
+      </c>
+      <c r="V26" s="6">
+        <v>35235900000</v>
+      </c>
+      <c r="W26" s="6">
+        <v>35738500000</v>
+      </c>
+      <c r="X26" s="6">
+        <v>36249600000</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>36769400000</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>37298100000</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>37835700000</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>38382500000</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>38938600000</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>39504100000</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>40079200000</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>40664200000</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>41259000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2253820000</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2253820000</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2258930000</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2265600000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2273840000</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2283660000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2295110000</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2308190000</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2322950000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2337820000</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2352820000</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2367930000</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2383170000</v>
+      </c>
+      <c r="O27" s="6">
+        <v>2398520000</v>
+      </c>
+      <c r="P27" s="6">
+        <v>2414000000</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>2429610000</v>
+      </c>
+      <c r="R27" s="6">
+        <v>2445340000</v>
+      </c>
+      <c r="S27" s="6">
+        <v>2461190000</v>
+      </c>
+      <c r="T27" s="6">
+        <v>2477170000</v>
+      </c>
+      <c r="U27" s="6">
+        <v>2493280000</v>
+      </c>
+      <c r="V27" s="6">
+        <v>2509520000</v>
+      </c>
+      <c r="W27" s="6">
+        <v>2525890000</v>
+      </c>
+      <c r="X27" s="6">
+        <v>2542390000</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>2559020000</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>2575780000</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>2592680000</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>2609710000</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>2626880000</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>2644190000</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>2661630000</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>2679220000</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>2696940000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8116400000</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8116400000</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8213680000</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8314040000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>8417590000</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8524410000</v>
+      </c>
+      <c r="H28" s="6">
+        <v>8634620000</v>
+      </c>
+      <c r="I28" s="6">
+        <v>8748320000</v>
+      </c>
+      <c r="J28" s="6">
+        <v>8865610000</v>
+      </c>
+      <c r="K28" s="6">
+        <v>8984830000</v>
+      </c>
+      <c r="L28" s="6">
+        <v>9106010000</v>
+      </c>
+      <c r="M28" s="6">
+        <v>9229160000</v>
+      </c>
+      <c r="N28" s="6">
+        <v>9354340000</v>
+      </c>
+      <c r="O28" s="6">
+        <v>9481560000</v>
+      </c>
+      <c r="P28" s="6">
+        <v>9610870000</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>9742300000</v>
+      </c>
+      <c r="R28" s="6">
+        <v>9875880000</v>
+      </c>
+      <c r="S28" s="6">
+        <v>10011600000</v>
+      </c>
+      <c r="T28" s="6">
+        <v>10149600000</v>
+      </c>
+      <c r="U28" s="6">
+        <v>10289900000</v>
+      </c>
+      <c r="V28" s="6">
+        <v>10432400000</v>
+      </c>
+      <c r="W28" s="6">
+        <v>10577300000</v>
+      </c>
+      <c r="X28" s="6">
+        <v>10724600000</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>10874300000</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>11026400000</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>11181000000</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>11338100000</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>11497900000</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>11660200000</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>11825200000</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>11992900000</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>12163300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6">
+        <v>119808000000</v>
+      </c>
+      <c r="C29" s="6">
+        <v>119808000000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>121696000000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>123571000000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>125430000000</v>
+      </c>
+      <c r="G29" s="6">
+        <v>127271000000</v>
+      </c>
+      <c r="H29" s="6">
+        <v>129092000000</v>
+      </c>
+      <c r="I29" s="6">
+        <v>130890000000</v>
+      </c>
+      <c r="J29" s="6">
+        <v>132664000000</v>
+      </c>
+      <c r="K29" s="6">
+        <v>134468000000</v>
+      </c>
+      <c r="L29" s="6">
+        <v>136300000000</v>
+      </c>
+      <c r="M29" s="6">
+        <v>138163000000</v>
+      </c>
+      <c r="N29" s="6">
+        <v>140057000000</v>
+      </c>
+      <c r="O29" s="6">
+        <v>141982000000</v>
+      </c>
+      <c r="P29" s="6">
+        <v>143938000000</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>145927000000</v>
+      </c>
+      <c r="R29" s="6">
+        <v>147948000000</v>
+      </c>
+      <c r="S29" s="6">
+        <v>150003000000</v>
+      </c>
+      <c r="T29" s="6">
+        <v>152091000000</v>
+      </c>
+      <c r="U29" s="6">
+        <v>154213000000</v>
+      </c>
+      <c r="V29" s="6">
+        <v>156371000000</v>
+      </c>
+      <c r="W29" s="6">
+        <v>158564000000</v>
+      </c>
+      <c r="X29" s="6">
+        <v>160793000000</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>163058000000</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>165361000000</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>167702000000</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>170081000000</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>172499000000</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>174957000000</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>177455000000</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>179995000000</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>182576000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6">
+        <v>185794000000</v>
+      </c>
+      <c r="C30" s="6">
+        <v>185794000000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>191725000000</v>
+      </c>
+      <c r="E30" s="6">
+        <v>197521000000</v>
+      </c>
+      <c r="F30" s="6">
+        <v>203152000000</v>
+      </c>
+      <c r="G30" s="6">
+        <v>208586000000</v>
+      </c>
+      <c r="H30" s="6">
+        <v>213791000000</v>
+      </c>
+      <c r="I30" s="6">
+        <v>218735000000</v>
+      </c>
+      <c r="J30" s="6">
+        <v>223389000000</v>
+      </c>
+      <c r="K30" s="6">
+        <v>228159000000</v>
+      </c>
+      <c r="L30" s="6">
+        <v>233049000000</v>
+      </c>
+      <c r="M30" s="6">
+        <v>238061000000</v>
+      </c>
+      <c r="N30" s="6">
+        <v>243199000000</v>
+      </c>
+      <c r="O30" s="6">
+        <v>248465000000</v>
+      </c>
+      <c r="P30" s="6">
+        <v>253863000000</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>259395000000</v>
+      </c>
+      <c r="R30" s="6">
+        <v>265067000000</v>
+      </c>
+      <c r="S30" s="6">
+        <v>270880000000</v>
+      </c>
+      <c r="T30" s="6">
+        <v>276839000000</v>
+      </c>
+      <c r="U30" s="6">
+        <v>282946000000</v>
+      </c>
+      <c r="V30" s="6">
+        <v>289207000000</v>
+      </c>
+      <c r="W30" s="6">
+        <v>295624000000</v>
+      </c>
+      <c r="X30" s="6">
+        <v>302202000000</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>308944000000</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>315856000000</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>322940000000</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>330201000000</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>337644000000</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>345273000000</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>353093000000</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>361109000000</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>369325000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6">
+        <v>72751600000</v>
+      </c>
+      <c r="C31" s="6">
+        <v>72751600000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>73791600000</v>
+      </c>
+      <c r="E31" s="6">
+        <v>74833000000</v>
+      </c>
+      <c r="F31" s="6">
+        <v>75875100000</v>
+      </c>
+      <c r="G31" s="6">
+        <v>76917400000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>77959300000</v>
+      </c>
+      <c r="I31" s="6">
+        <v>79000300000</v>
+      </c>
+      <c r="J31" s="6">
+        <v>80039600000</v>
+      </c>
+      <c r="K31" s="6">
+        <v>81095500000</v>
+      </c>
+      <c r="L31" s="6">
+        <v>82168400000</v>
+      </c>
+      <c r="M31" s="6">
+        <v>83258400000</v>
+      </c>
+      <c r="N31" s="6">
+        <v>84365900000</v>
+      </c>
+      <c r="O31" s="6">
+        <v>85491000000</v>
+      </c>
+      <c r="P31" s="6">
+        <v>86634200000</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>87795700000</v>
+      </c>
+      <c r="R31" s="6">
+        <v>88975700000</v>
+      </c>
+      <c r="S31" s="6">
+        <v>90174600000</v>
+      </c>
+      <c r="T31" s="6">
+        <v>91392800000</v>
+      </c>
+      <c r="U31" s="6">
+        <v>92630400000</v>
+      </c>
+      <c r="V31" s="6">
+        <v>93887800000</v>
+      </c>
+      <c r="W31" s="6">
+        <v>95165300000</v>
+      </c>
+      <c r="X31" s="6">
+        <v>96463300000</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>97782000000</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>99121800000</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>100483000000</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>101866000000</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>103271000000</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>104699000000</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>106149000000</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>107623000000</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>109120000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6">
+        <v>38048400000</v>
+      </c>
+      <c r="C32" s="6">
+        <v>38048400000</v>
+      </c>
+      <c r="D32" s="6">
+        <v>38967300000</v>
+      </c>
+      <c r="E32" s="6">
+        <v>39867600000</v>
+      </c>
+      <c r="F32" s="6">
+        <v>40746300000</v>
+      </c>
+      <c r="G32" s="6">
+        <v>41600200000</v>
+      </c>
+      <c r="H32" s="6">
+        <v>42426300000</v>
+      </c>
+      <c r="I32" s="6">
+        <v>43221400000</v>
+      </c>
+      <c r="J32" s="6">
+        <v>43982600000</v>
+      </c>
+      <c r="K32" s="6">
+        <v>44759700000</v>
+      </c>
+      <c r="L32" s="6">
+        <v>45553200000</v>
+      </c>
+      <c r="M32" s="6">
+        <v>46363300000</v>
+      </c>
+      <c r="N32" s="6">
+        <v>47190500000</v>
+      </c>
+      <c r="O32" s="6">
+        <v>48035000000</v>
+      </c>
+      <c r="P32" s="6">
+        <v>48897200000</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>49777600000</v>
+      </c>
+      <c r="R32" s="6">
+        <v>50676400000</v>
+      </c>
+      <c r="S32" s="6">
+        <v>51594200000</v>
+      </c>
+      <c r="T32" s="6">
+        <v>52531200000</v>
+      </c>
+      <c r="U32" s="6">
+        <v>53487800000</v>
+      </c>
+      <c r="V32" s="6">
+        <v>54464600000</v>
+      </c>
+      <c r="W32" s="6">
+        <v>55461900000</v>
+      </c>
+      <c r="X32" s="6">
+        <v>56480100000</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>57519700000</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>58581100000</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>59664800000</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>60771300000</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>61901000000</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>63054500000</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>64232100000</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>65434500000</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>66662200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6">
+        <v>15491300000</v>
+      </c>
+      <c r="C33" s="6">
+        <v>15491300000</v>
+      </c>
+      <c r="D33" s="6">
+        <v>15780000000</v>
+      </c>
+      <c r="E33" s="6">
+        <v>16082700000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>16399900000</v>
+      </c>
+      <c r="G33" s="6">
+        <v>16732400000</v>
+      </c>
+      <c r="H33" s="6">
+        <v>17081000000</v>
+      </c>
+      <c r="I33" s="6">
+        <v>17446300000</v>
+      </c>
+      <c r="J33" s="6">
+        <v>17829300000</v>
+      </c>
+      <c r="K33" s="6">
+        <v>18222500000</v>
+      </c>
+      <c r="L33" s="6">
+        <v>18626000000</v>
+      </c>
+      <c r="M33" s="6">
+        <v>19040100000</v>
+      </c>
+      <c r="N33" s="6">
+        <v>19465200000</v>
+      </c>
+      <c r="O33" s="6">
+        <v>19901500000</v>
+      </c>
+      <c r="P33" s="6">
+        <v>20349400000</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>20809000000</v>
+      </c>
+      <c r="R33" s="6">
+        <v>21280800000</v>
+      </c>
+      <c r="S33" s="6">
+        <v>21765100000</v>
+      </c>
+      <c r="T33" s="6">
+        <v>22262100000</v>
+      </c>
+      <c r="U33" s="6">
+        <v>22772200000</v>
+      </c>
+      <c r="V33" s="6">
+        <v>23295900000</v>
+      </c>
+      <c r="W33" s="6">
+        <v>23833300000</v>
+      </c>
+      <c r="X33" s="6">
+        <v>24384900000</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>24951100000</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>25532300000</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>26128800000</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>26741000000</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>27369400000</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>28014400000</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>28676400000</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>29355900000</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>30053300000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6">
+        <v>30640100000</v>
+      </c>
+      <c r="C34" s="6">
+        <v>30640100000</v>
+      </c>
+      <c r="D34" s="6">
+        <v>31509700000</v>
+      </c>
+      <c r="E34" s="6">
+        <v>32346200000</v>
+      </c>
+      <c r="F34" s="6">
+        <v>33144400000</v>
+      </c>
+      <c r="G34" s="6">
+        <v>33899100000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>34605400000</v>
+      </c>
+      <c r="I34" s="6">
+        <v>35258500000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>35853900000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>36461300000</v>
+      </c>
+      <c r="L34" s="6">
+        <v>37080800000</v>
+      </c>
+      <c r="M34" s="6">
+        <v>37712700000</v>
+      </c>
+      <c r="N34" s="6">
+        <v>38357300000</v>
+      </c>
+      <c r="O34" s="6">
+        <v>39014700000</v>
+      </c>
+      <c r="P34" s="6">
+        <v>39685300000</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>40369300000</v>
+      </c>
+      <c r="R34" s="6">
+        <v>41067000000</v>
+      </c>
+      <c r="S34" s="6">
+        <v>41778600000</v>
+      </c>
+      <c r="T34" s="6">
+        <v>42504500000</v>
+      </c>
+      <c r="U34" s="6">
+        <v>43244900000</v>
+      </c>
+      <c r="V34" s="6">
+        <v>44000100000</v>
+      </c>
+      <c r="W34" s="6">
+        <v>44770400000</v>
+      </c>
+      <c r="X34" s="6">
+        <v>45556100000</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>46357500000</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>47174900000</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>48008700000</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>48859200000</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>49726600000</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>50611500000</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>51514000000</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>52434600000</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>53373600000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="6">
+        <v>47096900000</v>
+      </c>
+      <c r="C35" s="6">
+        <v>47096900000</v>
+      </c>
+      <c r="D35" s="6">
+        <v>52004200000</v>
+      </c>
+      <c r="E35" s="6">
+        <v>56866900000</v>
+      </c>
+      <c r="F35" s="6">
+        <v>61547500000</v>
+      </c>
+      <c r="G35" s="6">
+        <v>65899600000</v>
+      </c>
+      <c r="H35" s="6">
+        <v>69775100000</v>
+      </c>
+      <c r="I35" s="6">
+        <v>73031200000</v>
+      </c>
+      <c r="J35" s="6">
+        <v>75539600000</v>
+      </c>
+      <c r="K35" s="6">
+        <v>78141600000</v>
+      </c>
+      <c r="L35" s="6">
+        <v>80840700000</v>
+      </c>
+      <c r="M35" s="6">
+        <v>83640400000</v>
+      </c>
+      <c r="N35" s="6">
+        <v>86544700000</v>
+      </c>
+      <c r="O35" s="6">
+        <v>89557300000</v>
+      </c>
+      <c r="P35" s="6">
+        <v>92682300000</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>95923900000</v>
+      </c>
+      <c r="R35" s="6">
+        <v>99286400000</v>
+      </c>
+      <c r="S35" s="6">
+        <v>102774000000</v>
+      </c>
+      <c r="T35" s="6">
+        <v>106393000000</v>
+      </c>
+      <c r="U35" s="6">
+        <v>110146000000</v>
+      </c>
+      <c r="V35" s="6">
+        <v>114039000000</v>
+      </c>
+      <c r="W35" s="6">
+        <v>118077000000</v>
+      </c>
+      <c r="X35" s="6">
+        <v>122266000000</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>126612000000</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>131119000000</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>135795000000</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>140645000000</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>145676000000</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>150895000000</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>156308000000</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>161924000000</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>167749000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <v>110136000000</v>
+      </c>
+      <c r="C36" s="6">
+        <v>110136000000</v>
+      </c>
+      <c r="D36" s="6">
+        <v>111145000000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>112204000000</v>
+      </c>
+      <c r="F36" s="6">
+        <v>113314000000</v>
+      </c>
+      <c r="G36" s="6">
+        <v>114477000000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>115694000000</v>
+      </c>
+      <c r="I36" s="6">
+        <v>116967000000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>118299000000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>119649000000</v>
+      </c>
+      <c r="L36" s="6">
+        <v>121018000000</v>
+      </c>
+      <c r="M36" s="6">
+        <v>122406000000</v>
+      </c>
+      <c r="N36" s="6">
+        <v>123814000000</v>
+      </c>
+      <c r="O36" s="6">
+        <v>125242000000</v>
+      </c>
+      <c r="P36" s="6">
+        <v>126689000000</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>128157000000</v>
+      </c>
+      <c r="R36" s="6">
+        <v>129645000000</v>
+      </c>
+      <c r="S36" s="6">
+        <v>131154000000</v>
+      </c>
+      <c r="T36" s="6">
+        <v>132684000000</v>
+      </c>
+      <c r="U36" s="6">
+        <v>134236000000</v>
+      </c>
+      <c r="V36" s="6">
+        <v>135809000000</v>
+      </c>
+      <c r="W36" s="6">
+        <v>137404000000</v>
+      </c>
+      <c r="X36" s="6">
+        <v>139022000000</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>140662000000</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>142325000000</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>144012000000</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>145722000000</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>147456000000</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>149215000000</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>150998000000</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>152806000000</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>154639000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="6">
+        <v>196085000000</v>
+      </c>
+      <c r="C37" s="6">
+        <v>196085000000</v>
+      </c>
+      <c r="D37" s="6">
+        <v>199650000000</v>
+      </c>
+      <c r="E37" s="6">
+        <v>203203000000</v>
+      </c>
+      <c r="F37" s="6">
+        <v>206739000000</v>
+      </c>
+      <c r="G37" s="6">
+        <v>210253000000</v>
+      </c>
+      <c r="H37" s="6">
+        <v>213740000000</v>
+      </c>
+      <c r="I37" s="6">
+        <v>217197000000</v>
+      </c>
+      <c r="J37" s="6">
+        <v>220619000000</v>
+      </c>
+      <c r="K37" s="6">
+        <v>224106000000</v>
+      </c>
+      <c r="L37" s="6">
+        <v>227659000000</v>
+      </c>
+      <c r="M37" s="6">
+        <v>231279000000</v>
+      </c>
+      <c r="N37" s="6">
+        <v>234968000000</v>
+      </c>
+      <c r="O37" s="6">
+        <v>238728000000</v>
+      </c>
+      <c r="P37" s="6">
+        <v>242559000000</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>246462000000</v>
+      </c>
+      <c r="R37" s="6">
+        <v>250440000000</v>
+      </c>
+      <c r="S37" s="6">
+        <v>254493000000</v>
+      </c>
+      <c r="T37" s="6">
+        <v>258624000000</v>
+      </c>
+      <c r="U37" s="6">
+        <v>262833000000</v>
+      </c>
+      <c r="V37" s="6">
+        <v>267121000000</v>
+      </c>
+      <c r="W37" s="6">
+        <v>271492000000</v>
+      </c>
+      <c r="X37" s="6">
+        <v>275945000000</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>280483000000</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>285107000000</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>289819000000</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>294621000000</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>299514000000</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>304499000000</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>309580000000</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>314757000000</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>320032000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="6">
+        <v>125453000000</v>
+      </c>
+      <c r="C38" s="6">
+        <v>125453000000</v>
+      </c>
+      <c r="D38" s="6">
+        <v>128609000000</v>
+      </c>
+      <c r="E38" s="6">
+        <v>131717000000</v>
+      </c>
+      <c r="F38" s="6">
+        <v>134767000000</v>
+      </c>
+      <c r="G38" s="6">
+        <v>137750000000</v>
+      </c>
+      <c r="H38" s="6">
+        <v>140655000000</v>
+      </c>
+      <c r="I38" s="6">
+        <v>143472000000</v>
+      </c>
+      <c r="J38" s="6">
+        <v>146191000000</v>
+      </c>
+      <c r="K38" s="6">
+        <v>148972000000</v>
+      </c>
+      <c r="L38" s="6">
+        <v>151816000000</v>
+      </c>
+      <c r="M38" s="6">
+        <v>154723000000</v>
+      </c>
+      <c r="N38" s="6">
+        <v>157696000000</v>
+      </c>
+      <c r="O38" s="6">
+        <v>160737000000</v>
+      </c>
+      <c r="P38" s="6">
+        <v>163845000000</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>167024000000</v>
+      </c>
+      <c r="R38" s="6">
+        <v>170275000000</v>
+      </c>
+      <c r="S38" s="6">
+        <v>173599000000</v>
+      </c>
+      <c r="T38" s="6">
+        <v>176998000000</v>
+      </c>
+      <c r="U38" s="6">
+        <v>180473000000</v>
+      </c>
+      <c r="V38" s="6">
+        <v>184027000000</v>
+      </c>
+      <c r="W38" s="6">
+        <v>187661000000</v>
+      </c>
+      <c r="X38" s="6">
+        <v>191377000000</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>195177000000</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>199062000000</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>203036000000</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>207098000000</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>211253000000</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>215501000000</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>219845000000</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>224287000000</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>228829000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="6">
+        <v>106254000000</v>
+      </c>
+      <c r="C39" s="6">
+        <v>106254000000</v>
+      </c>
+      <c r="D39" s="6">
+        <v>106622000000</v>
+      </c>
+      <c r="E39" s="6">
+        <v>107037000000</v>
+      </c>
+      <c r="F39" s="6">
+        <v>107500000000</v>
+      </c>
+      <c r="G39" s="6">
+        <v>108010000000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>108570000000</v>
+      </c>
+      <c r="I39" s="6">
+        <v>109179000000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>109839000000</v>
+      </c>
+      <c r="K39" s="6">
+        <v>110505000000</v>
+      </c>
+      <c r="L39" s="6">
+        <v>111175000000</v>
+      </c>
+      <c r="M39" s="6">
+        <v>111850000000</v>
+      </c>
+      <c r="N39" s="6">
+        <v>112531000000</v>
+      </c>
+      <c r="O39" s="6">
+        <v>113217000000</v>
+      </c>
+      <c r="P39" s="6">
+        <v>113907000000</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>114603000000</v>
+      </c>
+      <c r="R39" s="6">
+        <v>115305000000</v>
+      </c>
+      <c r="S39" s="6">
+        <v>116011000000</v>
+      </c>
+      <c r="T39" s="6">
+        <v>116723000000</v>
+      </c>
+      <c r="U39" s="6">
+        <v>117440000000</v>
+      </c>
+      <c r="V39" s="6">
+        <v>118163000000</v>
+      </c>
+      <c r="W39" s="6">
+        <v>118891000000</v>
+      </c>
+      <c r="X39" s="6">
+        <v>119625000000</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>120364000000</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>121109000000</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>121859000000</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>122615000000</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>123377000000</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>124144000000</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>124917000000</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>125697000000</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>126482000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6">
+        <v>79774000000</v>
+      </c>
+      <c r="C40" s="6">
+        <v>79774000000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>79927500000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>80235400000</v>
+      </c>
+      <c r="F40" s="6">
+        <v>80699500000</v>
+      </c>
+      <c r="G40" s="6">
+        <v>81322800000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>82109500000</v>
+      </c>
+      <c r="I40" s="6">
+        <v>83065000000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>84196000000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>85346200000</v>
+      </c>
+      <c r="L40" s="6">
+        <v>86515900000</v>
+      </c>
+      <c r="M40" s="6">
+        <v>87705600000</v>
+      </c>
+      <c r="N40" s="6">
+        <v>88915500000</v>
+      </c>
+      <c r="O40" s="6">
+        <v>90145900000</v>
+      </c>
+      <c r="P40" s="6">
+        <v>91397200000</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>92669900000</v>
+      </c>
+      <c r="R40" s="6">
+        <v>93964100000</v>
+      </c>
+      <c r="S40" s="6">
+        <v>95280400000</v>
+      </c>
+      <c r="T40" s="6">
+        <v>96619000000</v>
+      </c>
+      <c r="U40" s="6">
+        <v>97980400000</v>
+      </c>
+      <c r="V40" s="6">
+        <v>99365000000</v>
+      </c>
+      <c r="W40" s="6">
+        <v>100773000000</v>
+      </c>
+      <c r="X40" s="6">
+        <v>102205000000</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>103661000000</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>105143000000</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>106649000000</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>108181000000</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>109739000000</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>111323000000</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>112934000000</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>114573000000</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>116240000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="6">
+        <v>121290000000</v>
+      </c>
+      <c r="C41" s="6">
+        <v>121290000000</v>
+      </c>
+      <c r="D41" s="6">
+        <v>124071000000</v>
+      </c>
+      <c r="E41" s="6">
+        <v>126944000000</v>
+      </c>
+      <c r="F41" s="6">
+        <v>129913000000</v>
+      </c>
+      <c r="G41" s="6">
+        <v>132982000000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>136154000000</v>
+      </c>
+      <c r="I41" s="6">
+        <v>139434000000</v>
+      </c>
+      <c r="J41" s="6">
+        <v>142825000000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>146314000000</v>
+      </c>
+      <c r="L41" s="6">
+        <v>149905000000</v>
+      </c>
+      <c r="M41" s="6">
+        <v>153599000000</v>
+      </c>
+      <c r="N41" s="6">
+        <v>157401000000</v>
+      </c>
+      <c r="O41" s="6">
+        <v>161313000000</v>
+      </c>
+      <c r="P41" s="6">
+        <v>165339000000</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>169481000000</v>
+      </c>
+      <c r="R41" s="6">
+        <v>173743000000</v>
+      </c>
+      <c r="S41" s="6">
+        <v>178129000000</v>
+      </c>
+      <c r="T41" s="6">
+        <v>182642000000</v>
+      </c>
+      <c r="U41" s="6">
+        <v>187287000000</v>
+      </c>
+      <c r="V41" s="6">
+        <v>192065000000</v>
+      </c>
+      <c r="W41" s="6">
+        <v>196983000000</v>
+      </c>
+      <c r="X41" s="6">
+        <v>202043000000</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>207249000000</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>212607000000</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>218120000000</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>223793000000</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>229630000000</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>235637000000</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>241818000000</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>248178000000</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>254723000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="6">
+        <v>30777000000</v>
+      </c>
+      <c r="C42" s="6">
+        <v>30777000000</v>
+      </c>
+      <c r="D42" s="6">
+        <v>31369300000</v>
+      </c>
+      <c r="E42" s="6">
+        <v>31968300000</v>
+      </c>
+      <c r="F42" s="6">
+        <v>32573900000</v>
+      </c>
+      <c r="G42" s="6">
+        <v>33185800000</v>
+      </c>
+      <c r="H42" s="6">
+        <v>33804000000</v>
+      </c>
+      <c r="I42" s="6">
+        <v>34428000000</v>
+      </c>
+      <c r="J42" s="6">
+        <v>35057800000</v>
+      </c>
+      <c r="K42" s="6">
+        <v>35701500000</v>
+      </c>
+      <c r="L42" s="6">
+        <v>36359300000</v>
+      </c>
+      <c r="M42" s="6">
+        <v>37031600000</v>
+      </c>
+      <c r="N42" s="6">
+        <v>37718600000</v>
+      </c>
+      <c r="O42" s="6">
+        <v>38420800000</v>
+      </c>
+      <c r="P42" s="6">
+        <v>39138500000</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>39871900000</v>
+      </c>
+      <c r="R42" s="6">
+        <v>40621400000</v>
+      </c>
+      <c r="S42" s="6">
+        <v>41387500000</v>
+      </c>
+      <c r="T42" s="6">
+        <v>42170400000</v>
+      </c>
+      <c r="U42" s="6">
+        <v>42970500000</v>
+      </c>
+      <c r="V42" s="6">
+        <v>43788300000</v>
+      </c>
+      <c r="W42" s="6">
+        <v>44624000000</v>
+      </c>
+      <c r="X42" s="6">
+        <v>45478100000</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>46351000000</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>47243100000</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>48154800000</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>49086600000</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>50038900000</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>51012100000</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>52006700000</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>53023300000</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>54062200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2544430000</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2544430000</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2563310000</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2585010000</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2609600000</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2637180000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2667860000</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2701750000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2739000000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>2776870000</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2815390000</v>
+      </c>
+      <c r="M43" s="6">
+        <v>2854570000</v>
+      </c>
+      <c r="N43" s="6">
+        <v>2894410000</v>
+      </c>
+      <c r="O43" s="6">
+        <v>2934930000</v>
+      </c>
+      <c r="P43" s="6">
+        <v>2976130000</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>3018040000</v>
+      </c>
+      <c r="R43" s="6">
+        <v>3060660000</v>
+      </c>
+      <c r="S43" s="6">
+        <v>3104000000</v>
+      </c>
+      <c r="T43" s="6">
+        <v>3148090000</v>
+      </c>
+      <c r="U43" s="6">
+        <v>3192920000</v>
+      </c>
+      <c r="V43" s="6">
+        <v>3238510000</v>
+      </c>
+      <c r="W43" s="6">
+        <v>3284880000</v>
+      </c>
+      <c r="X43" s="6">
+        <v>3332030000</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>3379990000</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>3428760000</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>3478370000</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>3528810000</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>3580120000</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>3632290000</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>3685350000</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>3739320000</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>3794200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <f>SUM(B2:B43)</f>
+        <v>1612349431000</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" ref="C45:AG45" si="0">SUM(C2:C43)</f>
+        <v>1612349431000</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>1646521711000</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>1680771329000</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="0"/>
+        <v>1714861945000</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>1748550134000</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="0"/>
+        <v>1781596656000</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>1813773535000</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>1844879009000</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="0"/>
+        <v>1876707616000</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="0"/>
+        <v>1909274404000</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="0"/>
+        <v>1942597195000</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="0"/>
+        <v>1976702169000</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="0"/>
+        <v>2011605735000</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="0"/>
+        <v>2047323283000</v>
+      </c>
+      <c r="Q45" s="6">
+        <f t="shared" si="0"/>
+        <v>2083880883000</v>
+      </c>
+      <c r="R45" s="6">
+        <f t="shared" si="0"/>
+        <v>2121301025000</v>
+      </c>
+      <c r="S45" s="6">
+        <f t="shared" si="0"/>
+        <v>2159601380000</v>
+      </c>
+      <c r="T45" s="6">
+        <f t="shared" si="0"/>
+        <v>2198810377000</v>
+      </c>
+      <c r="U45" s="6">
+        <f t="shared" si="0"/>
+        <v>2238946337000</v>
+      </c>
+      <c r="V45" s="6">
+        <f t="shared" si="0"/>
+        <v>2280034148000</v>
+      </c>
+      <c r="W45" s="6">
+        <f t="shared" si="0"/>
+        <v>2322100932000</v>
+      </c>
+      <c r="X45" s="6">
+        <f t="shared" si="0"/>
+        <v>2365171738000</v>
+      </c>
+      <c r="Y45" s="6">
+        <f t="shared" si="0"/>
+        <v>2409268447000</v>
+      </c>
+      <c r="Z45" s="6">
+        <f t="shared" si="0"/>
+        <v>2454425287000</v>
+      </c>
+      <c r="AA45" s="6">
+        <f t="shared" si="0"/>
+        <v>2500664360000</v>
+      </c>
+      <c r="AB45" s="6">
+        <f t="shared" si="0"/>
+        <v>2548014185000</v>
+      </c>
+      <c r="AC45" s="6">
+        <f t="shared" si="0"/>
+        <v>2596506572000</v>
+      </c>
+      <c r="AD45" s="6">
+        <f t="shared" si="0"/>
+        <v>2646169672000</v>
+      </c>
+      <c r="AE45" s="6">
+        <f t="shared" si="0"/>
+        <v>2697033244000</v>
+      </c>
+      <c r="AF45" s="6">
+        <f t="shared" si="0"/>
+        <v>2749135128000</v>
+      </c>
+      <c r="AG45" s="6">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1700,7 +6321,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +6331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1721,423 +6342,419 @@
       <c r="A2">
         <v>2014</v>
       </c>
-      <c r="B2" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A2,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1668241579679.8335</v>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A3,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1679238242620.5198</v>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A4,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1696054040794.1548</v>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A5,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1747612051653.0764</v>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A6,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1790071118077.8079</v>
+      <c r="B6">
+        <f>B7</f>
+        <v>1612349431000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B7" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A7,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1823391776543.6394</v>
+      <c r="B7">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A7,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1612349431000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A8,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1724877592104.5193</v>
+      <c r="B8">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A8,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1612349431000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A9,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1830684561912.2783</v>
+      <c r="B9">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A9,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1646521711000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A10,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1899401788268.928</v>
+      <c r="B10">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A10,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1680771329000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
-      <c r="B11" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A11,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1943119378416.5537</v>
+      <c r="B11">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A11,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1714861945000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A12,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>1978825764519.2061</v>
+      <c r="B12">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A12,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1748550134000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A13,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2011776677266.3904</v>
+      <c r="B13">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A13,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1781596656000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2026</v>
       </c>
-      <c r="B14" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A14,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2043733640129.1411</v>
+      <c r="B14">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A14,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1813773535000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2027</v>
       </c>
-      <c r="B15" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A15,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2075429480564.6255</v>
+      <c r="B15">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A15,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1844879009000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2028</v>
       </c>
-      <c r="B16" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A16,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2107239035605.5325</v>
+      <c r="B16">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A16,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1876707616000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2029</v>
       </c>
-      <c r="B17" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A17,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2139158093599.8093</v>
+      <c r="B17">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A17,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1909274404000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2030</v>
       </c>
-      <c r="B18" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A18,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2171161384635.1396</v>
+      <c r="B18">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A18,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1942597195000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2031</v>
       </c>
-      <c r="B19" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A19,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2203240485407.418</v>
+      <c r="B19">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A19,Sheet1!$B$1:$AG$1,0))</f>
+        <v>1976702169000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2032</v>
       </c>
-      <c r="B20" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A20,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2235412242524.856</v>
+      <c r="B20">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A20,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2011605735000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2033</v>
       </c>
-      <c r="B21" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A21,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2267672444335.3999</v>
+      <c r="B21">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A21,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2047323283000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
-      <c r="B22" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A22,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2299988450535.6421</v>
+      <c r="B22">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A22,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2083880883000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2035</v>
       </c>
-      <c r="B23" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A23,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2332329726648.2002</v>
+      <c r="B23">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A23,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2121301025000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2036</v>
       </c>
-      <c r="B24" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A24,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2364696272673.0747</v>
+      <c r="B24">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A24,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2159601380000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2037</v>
       </c>
-      <c r="B25" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A25,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2397135469695.8579</v>
+      <c r="B25">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A25,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2198810377000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2038</v>
       </c>
-      <c r="B26" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A26,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2429703122106.248</v>
+      <c r="B26">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A26,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2238946337000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2039</v>
       </c>
-      <c r="B27" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A27,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2462443452250.7979</v>
+      <c r="B27">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A27,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2280034148000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2040</v>
       </c>
-      <c r="B28" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A28,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2495390153345.9297</v>
+      <c r="B28">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A28,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2322100932000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2041</v>
       </c>
-      <c r="B29" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A29,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2528570601129.9849</v>
+      <c r="B29">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A29,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2365171738000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2042</v>
       </c>
-      <c r="B30" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A30,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2562013224254.3198</v>
+      <c r="B30">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A30,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2409268447000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2043</v>
       </c>
-      <c r="B31" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A31,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2595703281936.7505</v>
+      <c r="B31">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A31,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2454425287000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2044</v>
       </c>
-      <c r="B32" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A32,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2629588128526.6167</v>
+      <c r="B32">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A32,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2500664360000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2045</v>
       </c>
-      <c r="B33" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A33,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2663608800895.1831</v>
+      <c r="B33">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A33,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2548014185000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2046</v>
       </c>
-      <c r="B34" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A34,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2697742134956.1582</v>
+      <c r="B34">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A34,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2596506572000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2047</v>
       </c>
-      <c r="B35" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A35,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2732039723447.188</v>
+      <c r="B35">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A35,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2646169672000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2048</v>
       </c>
-      <c r="B36" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A36,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2766524730454.562</v>
+      <c r="B36">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A36,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2697033244000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2049</v>
       </c>
-      <c r="B37" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A37,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2801215055499.5049</v>
+      <c r="B37">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A37,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2749135128000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2050</v>
       </c>
-      <c r="B38" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A38,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2836135968494.332</v>
+      <c r="B38">
+        <f>INDEX(Sheet1!$B$45:$AG$45,MATCH(BGDP!A38,Sheet1!$B$1:$AG$1,0))</f>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2051</v>
       </c>
-      <c r="B39" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A39,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2871334850524.6357</v>
+      <c r="B39">
+        <f>B38</f>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2052</v>
       </c>
-      <c r="B40" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A40,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2906855923936.9702</v>
+      <c r="B40">
+        <f t="shared" ref="B40:B48" si="0">B39</f>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2053</v>
       </c>
-      <c r="B41" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A41,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2942747622729.9409</v>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2054</v>
       </c>
-      <c r="B42" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A42,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>2979028899337.7847</v>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2055</v>
       </c>
-      <c r="B43" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A43,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3015716600368.7124</v>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2056</v>
       </c>
-      <c r="B44" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A44,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3052870741864.4751</v>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2057</v>
       </c>
-      <c r="B45" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A45,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3090560816083.9414</v>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2058</v>
       </c>
-      <c r="B46" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A46,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3128877373546.2451</v>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2059</v>
       </c>
-      <c r="B47" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A47,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3167868848249.9907</v>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2060</v>
       </c>
-      <c r="B48" s="5">
-        <f>INDEX('OECD Data'!G:G,MATCH(A48,'OECD Data'!F:F,0))*About!$A$15*About!$A$16</f>
-        <v>3207546822238.3242</v>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2802499954000</v>
       </c>
     </row>
   </sheetData>
